--- a/Documentacion/tabla de resuitos.xlsx
+++ b/Documentacion/tabla de resuitos.xlsx
@@ -9,11 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="cliente" sheetId="2" r:id="rId1"/>
+    <sheet name="CUS" sheetId="2" r:id="rId1"/>
+    <sheet name="SYS" sheetId="3" r:id="rId2"/>
+    <sheet name="ARQ" sheetId="5" r:id="rId3"/>
+    <sheet name="SW" sheetId="6" r:id="rId4"/>
+    <sheet name="Test-C" sheetId="7" r:id="rId5"/>
+    <sheet name="INCIDENTES" sheetId="8" r:id="rId6"/>
+    <sheet name="INDEX_A" sheetId="4" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CUS!$B$1:$B$38</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
   <si>
     <t>Identificador</t>
   </si>
@@ -66,9 +75,6 @@
   </si>
   <si>
     <t>Factible</t>
-  </si>
-  <si>
-    <t>REQ-CL-01</t>
   </si>
   <si>
     <r>
@@ -134,18 +140,6 @@
 </t>
   </si>
   <si>
-    <t>REQ-CL-02</t>
-  </si>
-  <si>
-    <t>REQ-CL-03</t>
-  </si>
-  <si>
-    <t>REQ-CL-04</t>
-  </si>
-  <si>
-    <t>REQ-CL-05</t>
-  </si>
-  <si>
     <t xml:space="preserve">El tren de pulsos es una señal cuadrada de frecuencia variable con voltaje máximo de x Vdc descrita en la tabla
 *Columna 1 corresponde al porcentaje del ciclo de trabajo de una señal PWM cuya frecuencia es de 
 10Khz a un voltaje de 13.5V.
@@ -155,19 +149,10 @@
 </t>
   </si>
   <si>
-    <t>Req-cl-07</t>
-  </si>
-  <si>
     <t xml:space="preserve">El ajuste del potenciómetro deberá estar conectado como se muestra en la sig. figura </t>
   </si>
   <si>
-    <t>REQ-CL-06</t>
-  </si>
-  <si>
     <t>Se usará la siguiente tipografía para los mensajes.</t>
-  </si>
-  <si>
-    <t>Req-cl-08</t>
   </si>
   <si>
     <r>
@@ -196,9 +181,6 @@
     </r>
   </si>
   <si>
-    <t>Req-cl-09</t>
-  </si>
-  <si>
     <t xml:space="preserve">El circuito DRV8848-2A está siendo usado como medio puente H. </t>
   </si>
   <si>
@@ -219,24 +201,6 @@
 </t>
   </si>
   <si>
-    <t>Req-cl-10</t>
-  </si>
-  <si>
-    <t>Req-cl-11</t>
-  </si>
-  <si>
-    <t>Req-cl-12</t>
-  </si>
-  <si>
-    <t>Req-cl-13</t>
-  </si>
-  <si>
-    <t>Req-cl-14</t>
-  </si>
-  <si>
-    <t>Req-cl-15</t>
-  </si>
-  <si>
     <t xml:space="preserve">El diodo en paralelo con el motor debe también ser puesto en polarización inversa, asegurando la protección contra la corriente de descarga del campo magnético del roto
 </t>
   </si>
@@ -250,23 +214,434 @@
     <t xml:space="preserve">Así, al variar el tiempo de encendido On, es posible variar la velocidad del motor. El cambio en el tiempo  On puede ir desde 0%,25%… al 100%, dependiendo del ajuste del “set-point”. </t>
   </si>
   <si>
-    <t>Req-cl-16</t>
-  </si>
-  <si>
-    <t>Req-cl-17</t>
-  </si>
-  <si>
-    <t>Req-cl-18</t>
-  </si>
-  <si>
-    <t>Req-cl-19</t>
+    <t>Este porcentaje de operación deberá ser indicado en la pantalla o display (ver sección 2.1. Display) de la siguiente forma:</t>
+  </si>
+  <si>
+    <t>El control puede ser de tipo:
+1.Proporcional
+2.Proporcional-Integral
+3.Proporcional-Integral-Derivativo
+4.Redes neuronales
+5.Lógica difusa
+6.Variables de estado
+7.Algoritmos genéticos
+8.Etc.</t>
+  </si>
+  <si>
+    <t>El sistema operativo está abierto a las siguientes opciones:
+1.Máquina de estado. Deberán definir:oEstadosoEventos 2.Calendarizador (scheduler)oTareas oMáquinas de estado 
+3.Sistema OperativooRTOS (preemptive/non-preemptive)
+●Tareas
+●Eventos
+●Máquinas de estado (si aplica)
+●Semáforos.
+4.OtrooEspecificar.</t>
+  </si>
+  <si>
+    <t>Tareas del sistema operativoEl sistema deberá considerar las siguientes tareas:
+1.PuertosoEntradas-salidas digitales.oConvertidores analógicos digitales.oModulación de ancho de pulso PWM.oPuerto SPI.
+2.Control.o(ver sección de Control)
+3.Diagnósticos.oModo estático.
+●Detección de corto a batería.oModo dinámico
+●Detección de corto a tierra.
+4.Actualización de la pantalla LCD+B76.
+5.Grabar valores en EEPROM.
+oDiagnóstico de cortos.
+oControles digitales.</t>
+  </si>
+  <si>
+    <t>Análisis de throughput y Balanceo de tareasLas tareas deberán ser ejecutadas en un tiempo denominado ciclo de operación TIC’s que corresponde a x mS. 
+Todas las operaciones deberán desarrollarse en ese periodo.Las tareas podrán ser monitoreadas con una resolución de al menos 10x TIC’s. Además, deberán ser almacenadas en variables de tipo entero.El criterio para reconsiderar el diseño propuesto es: cuando el Throughput sea mayor al 70% del uso del CPU. En éste caso, será necesario dividir estados/tareas/subrutinas, para alcanzar el throughput propuesto.</t>
+  </si>
+  <si>
+    <t>Diagnósticos
+A) Etapa de PotenciaoAnálisis DinámicooAnálisis Estático
+B) Memoria Interna (DataFlash)oCorrupción de Memoria
+C) BotoneraoBotón en corto
+D) ADC oCorto a TierraoCorto a Batería</t>
+  </si>
+  <si>
+    <t>Apariencia del display.El display deberá tener las siguientes características:
+1.Contraste adecuado
+2.Buena iluminación
+3.Uso de la tipografía especificada en el punto 
+4.Velocidad de refresco adecuado</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>power mod</t>
+  </si>
+  <si>
+    <t>Plataforma</t>
+  </si>
+  <si>
+    <t>Configuraciones al Inicializar el sistema operativo.Durante el proceso de la inicialización del sistema operativo deberá considerar la configuración de los siguientes registros:
+1.MemoriaEEPROM.
+2.Temporizador por interrupción cada XXms (definido por el usuario).
+3.Convertidores analógicos digitales
+4.Modulares de ancho de pulso
+5.Puertos digitales.
+6.Watchdog timer
+7.Input capture.
+8.Pantalla LCD</t>
+  </si>
+  <si>
+    <t>plataforma</t>
+  </si>
+  <si>
+    <t>Diagnosticos</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>REQ-CUS-CON-01</t>
+  </si>
+  <si>
+    <t>REQ-CUS-CON-02</t>
+  </si>
+  <si>
+    <t>REQ-CUS-CON-03</t>
+  </si>
+  <si>
+    <t>REQ-CUS-CON-04</t>
+  </si>
+  <si>
+    <t>REQ-CUS-CON-05</t>
+  </si>
+  <si>
+    <t>REQ-CUS-CON-06</t>
+  </si>
+  <si>
+    <t>REQ-CUS-CON-07</t>
+  </si>
+  <si>
+    <t>REQ-CUS-DIAG-01</t>
+  </si>
+  <si>
+    <t>REQ-CUS-HMI-01</t>
+  </si>
+  <si>
+    <t>REQ-CUS-HMI-02</t>
+  </si>
+  <si>
+    <t>REQ-CUS-HMI-03</t>
+  </si>
+  <si>
+    <t>REQ-CUS-HMI-04</t>
+  </si>
+  <si>
+    <t>REQ-CUS-CON-08</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PLA-01</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PLA-02</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PLA-03</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PLA-04</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PM-01</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PM-02</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PM-03</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PM-04</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PM-05</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PM-06</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PM-07</t>
+  </si>
+  <si>
+    <t>REQ-CUS-PM-08</t>
+  </si>
+  <si>
+    <t>REQ-CUS-QA-01</t>
+  </si>
+  <si>
+    <t>REQ-CUS-INT-01</t>
+  </si>
+  <si>
+    <t>REQ-CUS-INT-02</t>
+  </si>
+  <si>
+    <t>Interfaz tacometro</t>
+  </si>
+  <si>
+    <t>Req Funcional</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Investigar herramienta gratuita que permita la verificación de reglas o estándares de codificación.</t>
+  </si>
+  <si>
+    <t>Req-Padre</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control </t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-02</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-03</t>
+  </si>
+  <si>
+    <t>la frecuencia Base del PWM devera ser de 10 KHZ con un error de +-1%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">la salida generada PWM en el microcontrolador devera  usar estandar TTL de 3.3 v volts con una </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>El setpoint devera ser establecido por una resistencia variable contenida en un potenciometro de 10k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ω </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>± 1%</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-04</t>
+  </si>
+  <si>
+    <t>Electrico</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El circuito de conexión del setpoint se devera implementar con un divisor de tension </t>
+  </si>
+  <si>
+    <t>el circuito de divisor de tension devera trabajar en un rango de 1 volt a 2 volts siendo 0%-1Volt y 100% 2 volts</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la lectura del valor del setpoint devera actualizarse cada 100 ms </t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-07</t>
+  </si>
+  <si>
+    <t>la señal del PWM que se genera para controlar el motor devera seguir la tabla de proporciones</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El circuito base del setpoint devera tener este diseño </t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-09</t>
+  </si>
+  <si>
+    <t>la potencia del motor devera estar dado por la señal de un PWM definido como esta grafica</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-10</t>
+  </si>
+  <si>
+    <t>El algoritmo de control base devera ser cualqueira de este tipo:
+1.Proporcional
+2.Proporcional-Integral
+3.Proporcional-Integral-Derivativo
+4.Redes neuronales
+5.Lógica difusa
+6.Variables de estado
+7.Algoritmos genéticos</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-11</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-12</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-13</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devera de haber un reporte de estatus de la etapa de potencia mediante del bloque de Diagnosticos devera de reportar los siguientes estados 
+</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-15</t>
+  </si>
+  <si>
+    <t>devera de ser posible solicitar informacion de los diferentes estados de los bloques de Sw por medio del puerto serial</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-16</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-17</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-18</t>
+  </si>
+  <si>
+    <t>REQ-SYS-CON-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">los mensages de solicitud por medio de puerto serial tienen el estandar siguiente </t>
+  </si>
+  <si>
+    <t>el formato de solicitud de diagnosticos devera tener el formato sig 
+DIAG-{MODULO}-{PROPIEDAD}
+ver tabla index A</t>
+  </si>
+  <si>
+    <t>MODULO</t>
+  </si>
+  <si>
+    <t>PROPIEDAD</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>RESPUESTAS POSIBLES</t>
+  </si>
+  <si>
+    <t>[0%-%100]</t>
+  </si>
+  <si>
+    <t>MEMORIA INTERNA</t>
+  </si>
+  <si>
+    <t>Correcto/ERRONEO</t>
+  </si>
+  <si>
+    <t>BOTONERA</t>
+  </si>
+  <si>
+    <t>Correcto/CORTO GND/CORTO VCC</t>
+  </si>
+  <si>
+    <t>SETPOINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current status </t>
+  </si>
+  <si>
+    <t>VALOR [0-100]/CORTO GND/CORTO VCC</t>
+  </si>
+  <si>
+    <t>ejemplo de solicitud</t>
+  </si>
+  <si>
+    <t>ID MODULO</t>
+  </si>
+  <si>
+    <t>ID PROPIEDAD</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>ejemplo de respuesta</t>
+  </si>
+  <si>
+    <t>0%&gt;1-0  /  10%&gt;1-10</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM OK 2-1/MEM ERROR 2-2 </t>
+  </si>
+  <si>
+    <t>BOTONERA no corto 3-0 corto-vcc 3-1 corto gnd 3-2</t>
+  </si>
+  <si>
+    <t>setpoint actual ok 4-[1-100] corto gnd 4-0 corto vcc 4-255</t>
+  </si>
+  <si>
+    <t>SW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +684,25 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,11 +724,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -350,21 +741,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,7 +1083,43 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -684,15 +1133,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>409575</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>476250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>3333750</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>2381250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -736,16 +1185,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>3095625</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>1266825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -786,16 +1235,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3028951</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2571751</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -810,7 +1259,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504951" y="15744825"/>
+          <a:off x="2571751" y="24231600"/>
           <a:ext cx="2381250" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -822,16 +1271,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2686050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2493010</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4010025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2752726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -846,8 +1295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="17926050"/>
-          <a:ext cx="1292860" cy="3038475"/>
+          <a:off x="5067300" y="23726776"/>
+          <a:ext cx="1323975" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,15 +1309,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>2162175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -924,9 +1373,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371474"/>
@@ -983,13 +1432,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>466725</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>419100</xdr:rowOff>
@@ -1047,9 +1496,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -1106,9 +1555,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -1165,9 +1614,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -1224,9 +1673,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -1283,7 +1732,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
@@ -1342,7 +1791,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
@@ -1401,7 +1850,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
@@ -1460,7 +1909,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
@@ -1519,7 +1968,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
@@ -1578,7 +2027,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
@@ -1637,7 +2086,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
@@ -1696,7 +2145,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>10</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
@@ -1755,7 +2204,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>11</xdr:col>
+          <xdr:col>13</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
@@ -1814,7 +2263,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>12</xdr:col>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
@@ -1873,7 +2322,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>13</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
@@ -1932,9 +2381,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -1991,9 +2440,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2050,9 +2499,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2109,9 +2558,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2168,9 +2617,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2227,9 +2676,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2286,9 +2735,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2345,9 +2794,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>10</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2404,9 +2853,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>11</xdr:col>
+          <xdr:col>13</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2463,9 +2912,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>12</xdr:col>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2522,9 +2971,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>13</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2581,9 +3030,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2640,9 +3089,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2699,9 +3148,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2758,9 +3207,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2817,9 +3266,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2876,9 +3325,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2935,9 +3384,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -2994,9 +3443,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>10</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3053,9 +3502,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>11</xdr:col>
+          <xdr:col>13</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3112,9 +3561,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>12</xdr:col>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3171,9 +3620,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>13</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3230,9 +3679,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3289,9 +3738,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3348,9 +3797,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3407,9 +3856,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3466,9 +3915,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3525,9 +3974,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3584,9 +4033,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3643,9 +4092,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>10</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3702,9 +4151,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>11</xdr:col>
+          <xdr:col>13</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3761,9 +4210,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>12</xdr:col>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3820,9 +4269,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>13</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3879,9 +4328,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3938,9 +4387,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -3997,9 +4446,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -4056,9 +4505,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -4115,9 +4564,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -4174,9 +4623,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -4233,9 +4682,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -4292,9 +4741,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>10</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -4351,9 +4800,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>11</xdr:col>
+          <xdr:col>13</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -4410,9 +4859,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>12</xdr:col>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -4469,9 +4918,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>13</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371475"/>
@@ -4528,9 +4977,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371474"/>
@@ -4587,9 +5036,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371474"/>
@@ -4646,9 +5095,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371474"/>
@@ -4705,9 +5154,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371474"/>
@@ -4764,9 +5213,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371474"/>
@@ -4823,9 +5272,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371474"/>
@@ -4882,9 +5331,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>10</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371474"/>
@@ -4941,9 +5390,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>11</xdr:col>
+          <xdr:col>13</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371474"/>
@@ -5000,9 +5449,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>12</xdr:col>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371474"/>
@@ -5059,9 +5508,9 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>13</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>1790701</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="190500" cy="371474"/>
@@ -5118,15 +5567,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5182,16 +5631,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>419100</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5242,6 +5691,864 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2188" name="Check Box 140" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2188"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="371475"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2189" name="Check Box 141" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2189"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="371475"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2190" name="Check Box 142" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2190"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="371475"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2191" name="Check Box 143" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2191"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="371475"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2192" name="Check Box 144" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2192"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="371475"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2193" name="Check Box 145" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2193"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="371475"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2194" name="Check Box 146" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2194"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="371475"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2195" name="Check Box 147" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2195"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="371475"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2196" name="Check Box 148" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2196"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3965458</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1400176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="18878551"/>
+          <a:ext cx="3870208" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3495264</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2009601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="9001125"/>
+          <a:ext cx="3285714" cy="1390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3209630</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1409577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="6905625"/>
+          <a:ext cx="2361905" cy="980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>142876</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>552450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2657476</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>2190626</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2784790</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1476375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="6619875"/>
+          <a:ext cx="2718115" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>544333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2333625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1447800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect r="7814" b="4782"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="8173858"/>
+          <a:ext cx="2066925" cy="903467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1695451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4752975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3167343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="10839451"/>
+          <a:ext cx="4533900" cy="1471892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3723944</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1780986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="13887450"/>
+          <a:ext cx="2647619" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5508,656 +6815,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C15"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="D28" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
+    <row r="29" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="30" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
+    <row r="31" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
-    <row r="6" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-    </row>
-    <row r="29" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-    </row>
-    <row r="30" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-    </row>
-    <row r="31" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-    </row>
-    <row r="32" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-    </row>
-    <row r="33" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="O7:O11"/>
-    <mergeCell ref="P7:P11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="M7:M11"/>
-    <mergeCell ref="N7:N11"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="H29:H36"/>
-    <mergeCell ref="I29:I36"/>
-    <mergeCell ref="J29:J36"/>
-    <mergeCell ref="K29:K36"/>
-    <mergeCell ref="O25:O28"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="L29:L36"/>
-    <mergeCell ref="M29:M36"/>
-    <mergeCell ref="N29:N36"/>
-    <mergeCell ref="O29:O36"/>
-    <mergeCell ref="P29:P36"/>
-  </mergeCells>
+  <autoFilter ref="B1:B38">
+    <sortState ref="A2:O52">
+      <sortCondition ref="B1:B52"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6169,15 +7357,15 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>409575</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>476250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>3333750</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>2381250</xdr:rowOff>
               </to>
             </anchor>
@@ -6194,16 +7382,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>409575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>3095625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>1266825</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6223,15 +7411,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6245,15 +7433,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6264,138 +7452,6 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2110" r:id="rId10" name="Check Box 62">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2112" r:id="rId11" name="Check Box 64">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2113" r:id="rId12" name="Check Box 65">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2114" r:id="rId13" name="Check Box 66">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2115" r:id="rId14" name="Check Box 67">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2116" r:id="rId15" name="Check Box 68">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2117" r:id="rId16" name="Check Box 69">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6417,7 +7473,95 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2118" r:id="rId17" name="Check Box 70">
+            <control shapeId="2112" r:id="rId11" name="Check Box 64">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2113" r:id="rId12" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2114" r:id="rId13" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2115" r:id="rId14" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2116" r:id="rId15" name="Check Box 68">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6439,7 +7583,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2119" r:id="rId18" name="Check Box 71">
+            <control shapeId="2117" r:id="rId16" name="Check Box 69">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6461,7 +7605,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2120" r:id="rId19" name="Check Box 72">
+            <control shapeId="2118" r:id="rId17" name="Check Box 70">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6483,7 +7627,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2121" r:id="rId20" name="Check Box 73">
+            <control shapeId="2119" r:id="rId18" name="Check Box 71">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6505,7 +7649,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2122" r:id="rId21" name="Check Box 74">
+            <control shapeId="2120" r:id="rId19" name="Check Box 72">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6527,7 +7671,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2123" r:id="rId22" name="Check Box 75">
+            <control shapeId="2121" r:id="rId20" name="Check Box 73">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6549,7 +7693,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2124" r:id="rId23" name="Check Box 76">
+            <control shapeId="2122" r:id="rId21" name="Check Box 74">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6571,7 +7715,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2125" r:id="rId24" name="Check Box 77">
+            <control shapeId="2123" r:id="rId22" name="Check Box 75">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6593,7 +7737,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2126" r:id="rId25" name="Check Box 78">
+            <control shapeId="2124" r:id="rId23" name="Check Box 76">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6615,19 +7759,63 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <control shapeId="2125" r:id="rId24" name="Check Box 77">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2126" r:id="rId25" name="Check Box 78">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
             <control shapeId="2127" r:id="rId26" name="Check Box 79">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6641,15 +7829,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>6</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>6</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6660,6 +7848,446 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2129" r:id="rId28" name="Check Box 81">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2130" r:id="rId29" name="Check Box 82">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2131" r:id="rId30" name="Check Box 83">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2132" r:id="rId31" name="Check Box 84">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2133" r:id="rId32" name="Check Box 85">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2134" r:id="rId33" name="Check Box 86">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2135" r:id="rId34" name="Check Box 87">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2136" r:id="rId35" name="Check Box 88">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2137" r:id="rId36" name="Check Box 89">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2138" r:id="rId37" name="Check Box 90">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2139" r:id="rId38" name="Check Box 91">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2140" r:id="rId39" name="Check Box 92">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2141" r:id="rId40" name="Check Box 93">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2142" r:id="rId41" name="Check Box 94">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2143" r:id="rId42" name="Check Box 95">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2144" r:id="rId43" name="Check Box 96">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2145" r:id="rId44" name="Check Box 97">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2146" r:id="rId45" name="Check Box 98">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2147" r:id="rId46" name="Check Box 99">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2148" r:id="rId47" name="Check Box 100">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2149" r:id="rId48" name="Check Box 101">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6681,7 +8309,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2130" r:id="rId29" name="Check Box 82">
+            <control shapeId="2150" r:id="rId49" name="Check Box 102">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6703,7 +8331,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2131" r:id="rId30" name="Check Box 83">
+            <control shapeId="2151" r:id="rId50" name="Check Box 103">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6725,7 +8353,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2132" r:id="rId31" name="Check Box 84">
+            <control shapeId="2152" r:id="rId51" name="Check Box 104">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6747,7 +8375,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2133" r:id="rId32" name="Check Box 85">
+            <control shapeId="2153" r:id="rId52" name="Check Box 105">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6769,7 +8397,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2134" r:id="rId33" name="Check Box 86">
+            <control shapeId="2154" r:id="rId53" name="Check Box 106">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6791,7 +8419,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2135" r:id="rId34" name="Check Box 87">
+            <control shapeId="2155" r:id="rId54" name="Check Box 107">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6813,7 +8441,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2136" r:id="rId35" name="Check Box 88">
+            <control shapeId="2156" r:id="rId55" name="Check Box 108">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6835,7 +8463,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2137" r:id="rId36" name="Check Box 89">
+            <control shapeId="2157" r:id="rId56" name="Check Box 109">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6857,459 +8485,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2138" r:id="rId37" name="Check Box 90">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2139" r:id="rId38" name="Check Box 91">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2140" r:id="rId39" name="Check Box 92">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2141" r:id="rId40" name="Check Box 93">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2142" r:id="rId41" name="Check Box 94">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2143" r:id="rId42" name="Check Box 95">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2144" r:id="rId43" name="Check Box 96">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2145" r:id="rId44" name="Check Box 97">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2146" r:id="rId45" name="Check Box 98">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2147" r:id="rId46" name="Check Box 99">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2148" r:id="rId47" name="Check Box 100">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2149" r:id="rId48" name="Check Box 101">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2150" r:id="rId49" name="Check Box 102">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2151" r:id="rId50" name="Check Box 103">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2152" r:id="rId51" name="Check Box 104">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2153" r:id="rId52" name="Check Box 105">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2154" r:id="rId53" name="Check Box 106">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2155" r:id="rId54" name="Check Box 107">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2156" r:id="rId55" name="Check Box 108">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2157" r:id="rId56" name="Check Box 109">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>419100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
             <control shapeId="2158" r:id="rId57" name="Check Box 110">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>12</xdr:col>
+                    <xdr:col>14</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>2</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>12</xdr:col>
+                    <xdr:col>14</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>2</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7323,15 +8511,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>13</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>2</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>2</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7345,15 +8533,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7367,15 +8555,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>6</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>6</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7389,15 +8577,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7411,15 +8599,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
+                    <xdr:col>8</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
+                    <xdr:col>8</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7433,15 +8621,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7455,15 +8643,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7477,15 +8665,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7499,15 +8687,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>12</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>12</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7521,15 +8709,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>11</xdr:col>
+                    <xdr:col>13</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
+                    <xdr:col>13</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7543,15 +8731,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>12</xdr:col>
+                    <xdr:col>14</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>12</xdr:col>
+                    <xdr:col>14</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7565,15 +8753,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>13</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>276225</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>466725</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7587,15 +8775,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>6</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>6</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7609,15 +8797,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7631,15 +8819,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
+                    <xdr:col>8</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
+                    <xdr:col>8</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7653,15 +8841,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7675,15 +8863,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7697,15 +8885,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7719,15 +8907,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>12</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>12</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7741,15 +8929,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>11</xdr:col>
+                    <xdr:col>13</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
+                    <xdr:col>13</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7763,15 +8951,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>12</xdr:col>
+                    <xdr:col>14</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>12</xdr:col>
+                    <xdr:col>14</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7785,15 +8973,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>13</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>1790700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>2162175</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7807,15 +8995,15 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7829,15 +9017,213 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>371475</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2188" r:id="rId82" name="Check Box 140">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2189" r:id="rId83" name="Check Box 141">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2190" r:id="rId84" name="Check Box 142">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2191" r:id="rId85" name="Check Box 143">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2192" r:id="rId86" name="Check Box 144">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2193" r:id="rId87" name="Check Box 145">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2194" r:id="rId88" name="Check Box 146">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2195" r:id="rId89" name="Check Box 147">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>419100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2196" r:id="rId90" name="Check Box 148">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>419100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7849,4 +9235,552 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="277.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Paint.Picture" shapeId="3073" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>552450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2657475</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>2190750</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Paint.Picture" shapeId="3073" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>